--- a/산출물/최종제출/프로젝트계획서.xlsx
+++ b/산출물/최종제출/프로젝트계획서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KH수업\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\10_Semi\project\산출물\최종제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E4BDF-0A9F-4C84-932C-D61CA4DA73B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11950"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>팀명</t>
   </si>
@@ -63,27 +64,117 @@
     <t>역할</t>
   </si>
   <si>
+    <t>구현기능</t>
+  </si>
+  <si>
+    <t>설계의 주안점</t>
+  </si>
+  <si>
+    <t>사용기술 및 개발환경</t>
+  </si>
+  <si>
+    <t>테라박스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양우찬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 예매 사이트 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현률 평가
+기여도 평가
+프로젝트계획서 취합 / 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면/UI 설계
+DB 설계
+클래스 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 / 테스트 동시 시행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계별 자료제출시마다 수정 / 추가
+발표전 자료 스타일 / 내용 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백성연</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손연희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진병만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김서하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 기능
+회원가입 기능
+영화 예매기능
+실관람평 등록기능
+고객센터 문의 기능 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용언어 : JAVA 11 , JS , JSP
+개발 도구 : 이클립스 , Figma, ERD Cloud
+서버 : Tomcat 9.0 
+DB : Oracle 11g
+OS : windows10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할 할당, 문서정리, 주요 프로세스 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 정의서 설계, DB 설계, 화면구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백성연, 손연희, 진병만, 김서하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>개요</t>
-  </si>
-  <si>
-    <t>구현기능</t>
-  </si>
-  <si>
-    <t>설계의 주안점</t>
-  </si>
-  <si>
-    <t>사용기술 및 개발환경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 로그인하여 영화 예매를 하는 페이지를 구현한다.
+사용자는 로그인하여 예매를 취소하거나 개인문의를 확인할 수있다.
+사용자의 불만이나 문의 사항은 고객센터를 통해 문의하도록한다.
+사용자는 극장이나 영화에 대한 상세정보를 확인할 수 있다.
+관리자는 로그인하여 사용자 문의에 답변할수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계시 영화/ 극장/ 사용자간의 관계를 예매 구현시에 충돌이 되지 않도록 구현한다.
+기존 참고 사이트에서의 서비스 기능을 제외한 주요 기능을 모방하여 비즈니스 프로세스를 이해하도록 설계함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="yy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,6 +200,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -461,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,17 +587,38 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,35 +626,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,32 +635,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,19 +879,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
-    <col min="3" max="10" width="16.4140625" customWidth="1"/>
-    <col min="11" max="26" width="7.9140625" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="26" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" customHeight="1"/>
@@ -804,42 +899,50 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1"/>
     <row r="6" spans="2:10" ht="34.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="C6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
       <c r="C7" s="5"/>
@@ -850,28 +953,28 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B9" s="28"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
@@ -898,152 +1001,204 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="8">
+        <v>45323</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45325</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45271</v>
+      </c>
+      <c r="F10" s="8">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="8">
+        <v>45306</v>
+      </c>
+      <c r="H10" s="8">
+        <v>45320</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45275</v>
+      </c>
+      <c r="J10" s="9">
+        <v>45320</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="134.25" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="23"/>
+      <c r="C11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:10" ht="16.5" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" ht="74.25" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="B14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" ht="74.25" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="B15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="2:10" ht="74.25" customHeight="1">
-      <c r="B16" s="11"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="B16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" ht="74.25" customHeight="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="B17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" ht="74.25" customHeight="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:10" ht="122.25" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:10" ht="122.25" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" ht="122.25" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" ht="122.25" customHeight="1">
-      <c r="B23" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+      <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10" ht="16.5" customHeight="1"/>
     <row r="25" spans="2:10" ht="16.5" customHeight="1"/>
@@ -2024,11 +2179,10 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -2043,13 +2197,14 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>